--- a/MyFrameTest/test_case/excels/接口.xlsx
+++ b/MyFrameTest/test_case/excels/接口.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
-  <si>
-    <t>title</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+  <si>
+    <t>test_case_id</t>
+  </si>
+  <si>
+    <t>test_case_name</t>
   </si>
   <si>
     <t>url</t>
@@ -37,6 +40,9 @@
     <t>body</t>
   </si>
   <si>
+    <t>GG_001</t>
+  </si>
+  <si>
     <t>个股公告接口</t>
   </si>
   <si>
@@ -52,27 +58,45 @@
     <t>{"Token":"MitakeWeb","Param":"-1,,300","Symbol":"00700.hk","src":"d"}</t>
   </si>
   <si>
+    <t>GG_002</t>
+  </si>
+  <si>
     <t>http://114.80.155.47:22013/v2/stockbulletinlist</t>
   </si>
   <si>
     <t>{"Token":"MitakeWeb","Param":"-1,,300","Symbol":"600000.sh","src":"d"}</t>
   </si>
   <si>
+    <t>GG_003</t>
+  </si>
+  <si>
     <t>http://114.80.155.47:22013/v2/stockreportlist</t>
   </si>
   <si>
     <t>{"Token":"MitakeWeb","Param":"-1,,300","Symbol":"000001.sz","src":"d"}</t>
   </si>
   <si>
+    <t>GG_004</t>
+  </si>
+  <si>
     <t>http://114.80.155.57:22013/v2/stocknewslist</t>
   </si>
   <si>
+    <t>GG_005</t>
+  </si>
+  <si>
     <t>http://114.80.155.57:22013/v2/stockbulletinlist</t>
   </si>
   <si>
+    <t>GG_006</t>
+  </si>
+  <si>
     <t>http://114.80.155.57:22013/v2/stockreportlist</t>
   </si>
   <si>
+    <t>POST_001</t>
+  </si>
+  <si>
     <t>post测试</t>
   </si>
   <si>
@@ -83,6 +107,9 @@
   </si>
   <si>
     <t>{"dasd":"das"}</t>
+  </si>
+  <si>
+    <t>GET_001</t>
   </si>
   <si>
     <t>get测试</t>
@@ -99,10 +126,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -156,6 +183,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -163,8 +204,46 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,18 +257,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,7 +274,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,59 +290,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,19 +312,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,25 +468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,133 +486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,11 +508,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,6 +520,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,9 +556,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,21 +570,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,10 +611,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -596,133 +623,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,21 +1120,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="2" width="52.625" customWidth="1"/>
-    <col min="5" max="5" width="71.25" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="52.625" customWidth="1"/>
+    <col min="6" max="6" width="71.25" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1129,156 +1157,183 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
         <v>11</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
+      <c r="H9" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="http://114.80.155.47:22013/v2/stockbulletinlist"/>
-    <hyperlink ref="B2" r:id="rId2" display="http://114.80.155.47:22013/v2/stocknewslist"/>
-    <hyperlink ref="B4" r:id="rId3" display="http://114.80.155.47:22013/v2/stockreportlist"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://114.80.155.57:22013/v2/stockbulletinlist" tooltip="http://114.80.155.57:22013/v2/stockbulletinlist"/>
-    <hyperlink ref="B5" r:id="rId5" display="http://114.80.155.57:22013/v2/stocknewslist" tooltip="http://114.80.155.57:22013/v2/stocknewslist"/>
-    <hyperlink ref="B7" r:id="rId6" display="http://114.80.155.57:22013/v2/stockreportlist" tooltip="http://114.80.155.57:22013/v2/stockreportlist"/>
-    <hyperlink ref="B8" r:id="rId7" display="https://httpbin.org/post" tooltip="https://httpbin.org/post"/>
-    <hyperlink ref="B9" r:id="rId8" display="https://httpbin.org/get" tooltip="https://httpbin.org/get"/>
+    <hyperlink ref="C3" r:id="rId1" display="http://114.80.155.47:22013/v2/stockbulletinlist"/>
+    <hyperlink ref="C2" r:id="rId2" display="http://114.80.155.47:22013/v2/stocknewslist"/>
+    <hyperlink ref="C4" r:id="rId3" display="http://114.80.155.47:22013/v2/stockreportlist"/>
+    <hyperlink ref="C6" r:id="rId4" display="http://114.80.155.57:22013/v2/stockbulletinlist" tooltip="http://114.80.155.57:22013/v2/stockbulletinlist"/>
+    <hyperlink ref="C5" r:id="rId5" display="http://114.80.155.57:22013/v2/stocknewslist" tooltip="http://114.80.155.57:22013/v2/stocknewslist"/>
+    <hyperlink ref="C7" r:id="rId6" display="http://114.80.155.57:22013/v2/stockreportlist" tooltip="http://114.80.155.57:22013/v2/stockreportlist"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://httpbin.org/post" tooltip="https://httpbin.org/post"/>
+    <hyperlink ref="C9" r:id="rId8" display="https://httpbin.org/get" tooltip="https://httpbin.org/get"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
